--- a/Finish_alpha.xlsx
+++ b/Finish_alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>Formula</t>
   </si>
@@ -46,61 +46,253 @@
     <t>type</t>
   </si>
   <si>
-    <t>DHILO</t>
-  </si>
-  <si>
-    <t>alpha106</t>
+    <t>Beta3</t>
+  </si>
+  <si>
+    <t>alpha194</t>
+  </si>
+  <si>
+    <t>alpha195</t>
+  </si>
+  <si>
+    <t>alpha197</t>
+  </si>
+  <si>
+    <t>alpha204</t>
+  </si>
+  <si>
+    <t>alpha206</t>
+  </si>
+  <si>
+    <t>alpha207</t>
+  </si>
+  <si>
+    <t>alpha208</t>
+  </si>
+  <si>
+    <t>alpha209</t>
+  </si>
+  <si>
+    <t>alpha211</t>
+  </si>
+  <si>
+    <t>alpha216</t>
+  </si>
+  <si>
+    <t>alpha32</t>
+  </si>
+  <si>
+    <t>alpha42</t>
+  </si>
+  <si>
+    <t>alpha56</t>
   </si>
   <si>
     <t>alpha62</t>
   </si>
   <si>
-    <t>MIDIAM(Low-EMA(Close,{}))</t>
-  </si>
-  <si>
-    <t>close_adj-Delay(close_adj,{})</t>
-  </si>
-  <si>
-    <t>Rank(Decay_linear(Rank(Correlation((low_adj),Ts_Mean(volume,{}), {})), {})) * -1</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.14, '休闲服务': 0.12, '传媒': 0.05, '公用事业': 0.08, '农林牧渔': 0.1, '医药生物': 0.05, '商业贸易': 0.08, '家用电器': 0.06, '建筑材料': 0.11, '建筑装饰': 0.07, '房地产': 0.1, '有色金属': 0.09, '机械设备': 0.1, '汽车': 0.11, '纺织服装': 0.05, '计算机': 0.08, '轻工制造': 0.07, '通信': 0.08, '采掘': 0.08, '钢铁': 0.11, '非银金融': 0.07, '食品饮料': 0.07}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.08, '传媒': 0.06, '化工': 0.06, '商业贸易': 0.07, '国防军工': 0.09, '建筑材料': 0.06, '建筑装饰': 0.08, '房地产': 0.06, '有色金属': 0.06, '机械设备': 0.05, '电子': 0.06, '电气设备': 0.05, '纺织服装': 0.08, '轻工制造': 0.11, '非银金融': 0.05}</t>
+    <t>alpha64</t>
+  </si>
+  <si>
+    <t>Covariance(Ts_Rank(close_adj,{}),Ts_Rank(hs300,{}),{})/Pow(StdDev(Ts_Rank(hs300,{}),{}),2)</t>
+  </si>
+  <si>
+    <t>volume/Ts_Mean(float_mv,{})</t>
+  </si>
+  <si>
+    <t>StdDev(volume/Ts_Mean(float_mv,{}),{})</t>
+  </si>
+  <si>
+    <t>Delay(volume/Ts_Mean(float_mv,{}),{})</t>
+  </si>
+  <si>
+    <t>If(Quantile(volume,5)&gt;3,Delay(Return(close_adj,{}),{}),Delay(Return(close_adj,{}+5),{})+5)</t>
+  </si>
+  <si>
+    <t>volume*{}/Ts_Sum(volume,{})</t>
+  </si>
+  <si>
+    <t>Ts_Mean(R,{})</t>
+  </si>
+  <si>
+    <t>Decay_linear(R,{})</t>
+  </si>
+  <si>
+    <t>Rank(R)</t>
+  </si>
+  <si>
+    <t>StdDev(R,{})</t>
+  </si>
+  <si>
+    <t>StdDev(GetResidual2,{})</t>
+  </si>
+  <si>
+    <t>-1*Ts_Sum(Rank(Corr(Rank(high_adj),Rank(volume),{})),{})</t>
+  </si>
+  <si>
+    <t>Rank(StdDev(high,{}))*Correlation(high,volume,{})</t>
+  </si>
+  <si>
+    <t>Max(Rank((open - Ts_Min(open,{}))),Rank((Rank(Correlation(Ts_Sum((high+low)/2,{}),Ts_Sum(Ts_Mean(volume,{}),{}),{})))))</t>
+  </si>
+  <si>
+    <t>-1*Rank(Decay_linear(Rank(Correlation(low_adj,Ts_Mean(volume,{}),{})),{}))</t>
+  </si>
+  <si>
+    <t>Max(Rank(Decay_linear(Correlation(Rank(vwap),Rank(volume),{}),{})),Rank(Decay_linear(Max(Correlation(Rank(close_adj),Rank(Ts_Mean(volume,{})),{}),{}),{})))</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.06, '休闲服务': 0.06, '传媒': 0.05, '公用事业': 0.09, '农林牧渔': 0.05, '化工': 0.05, '国防军工': 0.05, '家用电器': 0.07, '建筑装饰': 0.09, '房地产': 0.06, '机械设备': 0.07, '汽车': 0.08, '电子': 0.05, '纺织服装': 0.05, '轻工制造': 0.06, '采掘': 0.05, '钢铁': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '休闲服务': 0.09, '传媒': 0.07, '公用事业': 0.09, '农林牧渔': 0.16, '化工': 0.05, '医药生物': 0.11, '国防军工': 0.05, '家用电器': 0.17, '建筑材料': 0.12, '建筑装饰': 0.06, '房地产': 0.1, '机械设备': 0.05, '汽车': 0.07, '电气设备': 0.06, '纺织服装': 0.08, '计算机': 0.06, '轻工制造': 0.07, '采掘': 0.08, '钢铁': 0.11, '非银金融': 0.09, '食品饮料': 0.15}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.12, '休闲服务': 0.13, '传媒': 0.1, '公用事业': 0.12, '农林牧渔': 0.19, '化工': 0.05, '医药生物': 0.13, '商业贸易': 0.06, '国防军工': 0.05, '家用电器': 0.16, '建筑材料': 0.12, '建筑装饰': 0.07, '房地产': 0.11, '有色金属': 0.05, '机械设备': 0.09, '汽车': 0.09, '电子': 0.05, '电气设备': 0.09, '纺织服装': 0.06, '综合': 0.09, '计算机': 0.07, '轻工制造': 0.07, '采掘': 0.1, '钢铁': 0.12, '非银金融': 0.11, '食品饮料': 0.16}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.07, '休闲服务': 0.09, '传媒': 0.05, '公用事业': 0.07, '农林牧渔': 0.15, '化工': 0.05, '医药生物': 0.11, '国防军工': 0.07, '家用电器': 0.16, '建筑材料': 0.09, '建筑装饰': 0.06, '房地产': 0.09, '机械设备': 0.05, '汽车': 0.06, '电气设备': 0.05, '纺织服装': 0.05, '计算机': 0.05, '轻工制造': 0.06, '采掘': 0.08, '钢铁': 0.1, '非银金融': 0.1, '食品饮料': 0.14}</t>
+  </si>
+  <si>
+    <t>{'农林牧渔': 0.13, '建筑材料': 0.08, '机械设备': 0.05, '综合': 0.05, '采掘': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.11, '传媒': 0.08, '公用事业': 0.06, '农林牧渔': 0.09, '化工': 0.08, '医药生物': 0.06, '商业贸易': 0.05, '建筑材料': 0.08, '建筑装饰': 0.06, '房地产': 0.1, '有色金属': 0.06, '机械设备': 0.08, '纺织服装': 0.08, '计算机': 0.06, '轻工制造': 0.06, '采掘': 0.06, '钢铁': 0.08, '食品饮料': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.09, '休闲服务': 0.08, '传媒': 0.06, '公用事业': 0.06, '化工': 0.08, '商业贸易': 0.06, '建筑材料': 0.09, '建筑装饰': 0.07, '房地产': 0.1, '有色金属': 0.06, '机械设备': 0.08, '纺织服装': 0.06, '计算机': 0.07, '轻工制造': 0.09, '钢铁': 0.1, '非银金融': 0.09}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.09, '休闲服务': 0.08, '传媒': 0.06, '公用事业': 0.06, '化工': 0.08, '商业贸易': 0.06, '建筑材料': 0.09, '建筑装饰': 0.07, '房地产': 0.1, '有色金属': 0.05, '机械设备': 0.08, '纺织服装': 0.06, '计算机': 0.07, '轻工制造': 0.1, '钢铁': 0.1, '非银金融': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '休闲服务': 0.07, '传媒': 0.06, '公用事业': 0.06, '化工': 0.08, '商业贸易': 0.07, '国防军工': 0.05, '建筑材料': 0.09, '建筑装饰': 0.07, '房地产': 0.1, '有色金属': 0.05, '机械设备': 0.08, '纺织服装': 0.06, '计算机': 0.07, '轻工制造': 0.09, '钢铁': 0.09, '非银金融': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.11, '休闲服务': 0.07, '传媒': 0.07, '公用事业': 0.08, '农林牧渔': 0.09, '化工': 0.05, '商业贸易': 0.05, '建筑装饰': 0.11, '房地产': 0.12, '有色金属': 0.07, '机械设备': 0.08, '汽车': 0.12, '电子': 0.05, '轻工制造': 0.12, '通信': 0.11, '采掘': 0.08, '银行': 0.08, '非银金融': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '传媒': 0.1, '公用事业': 0.08, '农林牧渔': 0.06, '化工': 0.05, '商业贸易': 0.07, '建筑材料': 0.05, '建筑装饰': 0.1, '房地产': 0.1, '机械设备': 0.1, '汽车': 0.07, '电子': 0.06, '纺织服装': 0.07, '计算机': 0.07, '轻工制造': 0.08, '通信': 0.08, '采掘': 0.06, '钢铁': 0.1, '银行': 0.07, '非银金融': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '休闲服务': 0.07, '传媒': 0.06, '公用事业': 0.06, '农林牧渔': 0.11, '医药生物': 0.1, '商业贸易': 0.05, '国防军工': 0.05, '家用电器': 0.1, '建筑材料': 0.07, '建筑装饰': 0.08, '房地产': 0.09, '机械设备': 0.09, '汽车': 0.07, '电子': 0.07, '计算机': 0.1, '轻工制造': 0.08, '采掘': 0.06, '食品饮料': 0.11}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.1, '休闲服务': 0.06, '传媒': 0.07, '公用事业': 0.09, '农林牧渔': 0.07, '化工': 0.08, '医药生物': 0.06, '商业贸易': 0.07, '国防军工': 0.07, '建筑材料': 0.07, '建筑装饰': 0.07, '房地产': 0.07, '有色金属': 0.09, '机械设备': 0.11, '汽车': 0.11, '电气设备': 0.09, '纺织服装': 0.05, '综合': 0.05, '计算机': 0.06, '轻工制造': 0.07, '通信': 0.08, '采掘': 0.07, '钢铁': 0.06, '非银金融': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.12, '传媒': 0.05, '商业贸易': 0.11, '国防军工': 0.11, '建筑材料': 0.06, '建筑装饰': 0.1, '房地产': 0.08, '有色金属': 0.05, '机械设备': 0.11, '汽车': 0.06, '电子': 0.08, '电气设备': 0.07, '纺织服装': 0.05, '计算机': 0.07, '轻工制造': 0.11, '通信': 0.06, '采掘': 0.06, '钢铁': 0.16, '非银金融': 0.08}</t>
   </si>
   <si>
     <t>{'休闲服务': 0.05, '化工': 0.07, '家用电器': 0.08, '建筑材料': 0.06, '有色金属': 0.07, '汽车': 0.08, '电子': 0.07, '纺织服装': 0.08, '轻工制造': 0.05, '通信': 0.05, '钢铁': 0.08, '非银金融': 0.06, '食品饮料': 0.05}</t>
   </si>
   <si>
+    <t>{'休闲服务': 0.06, '传媒': 0.07, '公用事业': 0.05, '农林牧渔': 0.07, '商业贸易': 0.06, '建筑材料': 0.07, '房地产': 0.05, '机械设备': 0.07, '汽车': 0.06, '综合': 0.08, '计算机': 0.05, '轻工制造': 0.05, '钢铁': 0.06, '食品饮料': 0.06}</t>
+  </si>
+  <si>
     <t>sw1</t>
   </si>
   <si>
+    <t>['close_adj', 'hs300']</t>
+  </si>
+  <si>
+    <t>['volume', 'float_mv']</t>
+  </si>
+  <si>
+    <t>['high_adj', 'volume']</t>
+  </si>
+  <si>
+    <t>['high', 'volume']</t>
+  </si>
+  <si>
+    <t>['open', 'volome', 'high']</t>
+  </si>
+  <si>
     <t>['low_adj', 'volume']</t>
   </si>
   <si>
-    <t>['close_adj']</t>
-  </si>
-  <si>
-    <t>最低价与收盘价13天指数平滑的差值</t>
-  </si>
-  <si>
-    <t>收盘价与20天前收盘价的差</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>['close_adj', 'vwap', 'volume']</t>
+  </si>
+  <si>
+    <t>使用Ts_Rank而计算的市场Beta，滑动窗口N天</t>
+  </si>
+  <si>
+    <t>成交量与N天流动市值均值的比值</t>
+  </si>
+  <si>
+    <t>成交量与N天流动市值均值的比值的M天方差</t>
+  </si>
+  <si>
+    <t>成交量与流动市值N天均值的比值，滞后M期</t>
+  </si>
+  <si>
+    <t>若横截面交易量5分quantile在3以上，则取收盘价M天收益率的N天滞后，否则取M+5天收益率的N+5天滞后。</t>
+  </si>
+  <si>
+    <t>N*成交量比上前N天成交量的总和</t>
+  </si>
+  <si>
+    <t>使用股价和指数进行回归得到残差，因子值为残差的N天滑动平均</t>
+  </si>
+  <si>
+    <t>使用股价和指数进行回归得到残差，因子值为残差的N天线性衰减平均</t>
+  </si>
+  <si>
+    <t>使用股价和指数进行回归得到残差，因子值为N天的横截面Rank</t>
+  </si>
+  <si>
+    <t>使用股价和指数进行回归得到残差，因子值为N天的时间序列方差</t>
+  </si>
+  <si>
+    <t>使用股价收益率和指数收益率进行回归得到残差，因子值为N天的时间序列方差</t>
+  </si>
+  <si>
+    <t>最高价的横截面Rank和成交量的横截面Rank的N天相关系数的横截面Rank，然后在时间序列N天上求和。</t>
+  </si>
+  <si>
+    <t>最高价在N天的方差的横截面Rank乘以最高价和成交量的N天相关系数.</t>
+  </si>
+  <si>
+    <t>先求开盘价和N1天最小开盘价的差值的横截面Rank，再求最高价和最低价求平均的N2天总和与成交量的N3天移动平均的N4天总和的N5天相关系数的横截面Rank，最后两个值中去较大值为因子值。</t>
+  </si>
+  <si>
+    <t>最低价和成交量N1天移动平均的N2天相关系数的横截面的Rank，再将Rank在N3天上线性衰减，最后再求一个横截面Rank.</t>
+  </si>
+  <si>
+    <t>先求vwap的横截面Rank和成交量的横截面Rank的N1天相关系数的N1天线性衰减的横截面Rank，再求收盘价的横截面Rank和成交量N2天移动平均的N1天相关系数和N3间的较大值的N4天线性衰减，最后两者去较大值为因子值</t>
   </si>
   <si>
     <t>ZZ800</t>
   </si>
   <si>
-    <t>[13]</t>
-  </si>
-  <si>
     <t>[20]</t>
   </si>
   <si>
+    <t>[200, 20]</t>
+  </si>
+  <si>
+    <t>[20, 5]</t>
+  </si>
+  <si>
+    <t>[5, 10]</t>
+  </si>
+  <si>
+    <t>[400]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[12, 19, 400, 19, 30]</t>
+  </si>
+  <si>
     <t>[80, 8, 17]</t>
+  </si>
+  <si>
+    <t>[4, 4, 20, 4, 50, 14]</t>
   </si>
   <si>
     <t>价量类</t>
@@ -461,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,34 +696,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,34 +731,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,34 +766,489 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>-0.04</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>-0.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>0.04</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0.04</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>-0.06</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>-0.06</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>-0.06</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0.04</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>-0.04</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
